--- a/Proyecto/profesores.xlsx
+++ b/Proyecto/profesores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6E73CC-32A8-4388-966B-9B84F26AB1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9139C1BE-0DAF-484B-B6F6-20102CA092DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{959B60CC-23B6-4316-8D3D-65F41FDFE9A6}"/>
   </bookViews>
@@ -126,9 +126,6 @@
     <t>ETICA Y LEGISLACION,INTRODUCCION A LA INGENIERIA,ADMINISTRACION DE PROYECTOS TECNOLOGICOS</t>
   </si>
   <si>
-    <t>FUNDAMENTOS DE LA PROGRAMACION,PROGRAMACION ESTRUCTURADA,PROGRAMACION ORIENTADA A OBJETOS</t>
-  </si>
-  <si>
     <t>CIRCUITOS ELECTRICOS Y ELECTROMAGNETISMO,SISTEMAS DIGITALES,ARQUITECTURA DE COMPUTADORAS</t>
   </si>
   <si>
@@ -202,6 +199,9 @@
   </si>
   <si>
     <t>TEORIA DE LA COMPUTACION,TALLER DE INTRODUCCION A LA COMPUTACION,INTRODUCCION A LA COMPUTACION</t>
+  </si>
+  <si>
+    <t>PROGRAMACION ESTRUCTURADA,PROGRAMACION ORIENTADA A OBJETOS</t>
   </si>
 </sst>
 </file>
@@ -564,7 +564,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,7 +600,7 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -611,10 +611,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -625,10 +625,10 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -642,7 +642,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -656,7 +656,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -667,10 +667,10 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -681,10 +681,10 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -695,10 +695,10 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -709,10 +709,10 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -723,10 +723,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -740,7 +740,7 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -754,7 +754,7 @@
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -768,7 +768,7 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -779,10 +779,10 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -796,7 +796,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -810,7 +810,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -821,10 +821,10 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -838,7 +838,7 @@
         <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -849,10 +849,10 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -863,10 +863,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
